--- a/database/capsules_spreadsheets/Winter 2023 Capsules.xlsx
+++ b/database/capsules_spreadsheets/Winter 2023 Capsules.xlsx
@@ -101,9 +101,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="436">
-  <si>
-    <t>t</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="437">
+  <si>
+    <t>title</t>
   </si>
   <si>
     <t>characters</t>
@@ -522,6 +522,9 @@
     <t>His first film after his feature debut and Cannes Caméra d'Or-winning _Girl_, Lukas Dhont's _Close_ stars Eden Dambrine and Gustav de Waele as two young teen boys, Léo and Rémi. Partially a retelling of Dhont's own childhood experiences, Léo and Rémi must navigate their relationship under new and unwanted scrutiny after returning to their normal lives following an idyllic summer together. Dhont took home the Grand Prix at Cannes for this film.</t>
   </si>
   <si>
+    <t>105m</t>
+  </si>
+  <si>
     <t>Free pre-release screening! Followed by discussion and Q+A with director Lukas Dhont moderated by CMST Professor Aurore Spiers.</t>
   </si>
   <si>
@@ -555,6 +558,9 @@
     <t>A Greek family living in Istanbul is broken apart when they are deported from Turkey; the family's young son, Fanis, struggles to adapt to life in Greece and takes refuge in cooking, as it is his only connection to his grandfather and his homeland. The film's original title, _Politiki Kouzina_, can either be translated as "Cuisine of the City" (referring to Constantinople) or as "Political Cuisine," reflecting the dual themes underpinning this film.</t>
   </si>
   <si>
+    <t>108m</t>
+  </si>
+  <si>
     <t>Sponsored by the UChicago Hellenic Students Association (HSA).</t>
   </si>
   <si>
@@ -646,9 +652,6 @@
   </si>
   <si>
     <t>An ambitious deconstruction of language, translation, and concepts of national and personal identity, this documentary features a collage of Vietnamese women’s voices, challenging the form and politics of traditional filmed ethnography. Weaving testimony with performance, and complex strategies of distanciation with self-conscious representation, _Surname_ expresses “the impossibility of a single truth in witnessing, remembering, recording, forgetting.”</t>
-  </si>
-  <si>
-    <t>108m</t>
   </si>
   <si>
     <t>https://tickets.uchicago.edu/Online/seatSelect.asp?createBO::WSmap=1&amp;BOparam::WSmap::loadBestAvailable::performance_ids=3E90AB31-3F41-4B1B-BE52-FE43BE228489</t>
@@ -3124,8 +3127,8 @@
       <c r="H20" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="I20" s="27">
-        <v>105.0</v>
+      <c r="I20" s="27" t="s">
+        <v>139</v>
       </c>
       <c r="J20" s="24" t="s">
         <v>49</v>
@@ -3142,18 +3145,18 @@
       <c r="P20" s="34"/>
       <c r="Q20" s="39"/>
       <c r="R20" s="25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S20" s="40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T20" s="36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B21" s="6">
         <f t="shared" si="1"/>
@@ -3175,10 +3178,10 @@
         <v>1935.0</v>
       </c>
       <c r="H21" s="49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J21" s="24" t="s">
         <v>49</v>
@@ -3196,7 +3199,7 @@
       <c r="Q21" s="25"/>
       <c r="R21" s="25"/>
       <c r="S21" s="35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T21" s="36" t="s">
         <v>51</v>
@@ -3204,7 +3207,7 @@
     </row>
     <row r="22">
       <c r="A22" s="22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B22" s="6">
         <f t="shared" si="1"/>
@@ -3214,22 +3217,22 @@
         <v>36</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G22" s="27">
         <v>2003.0</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="I22" s="27">
-        <v>108.0</v>
+        <v>150</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>151</v>
       </c>
       <c r="J22" s="24" t="s">
         <v>49</v>
@@ -3246,16 +3249,16 @@
       <c r="P22" s="34"/>
       <c r="Q22" s="39"/>
       <c r="R22" s="25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="S22" s="23"/>
       <c r="T22" s="36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="41" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B23" s="6">
         <f t="shared" si="1"/>
@@ -3277,7 +3280,7 @@
         <v>1963.0</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I23" s="27" t="s">
         <v>63</v>
@@ -3298,7 +3301,7 @@
       <c r="Q23" s="39"/>
       <c r="R23" s="39"/>
       <c r="S23" s="35" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="T23" s="36" t="s">
         <v>58</v>
@@ -3306,7 +3309,7 @@
     </row>
     <row r="24">
       <c r="A24" s="22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B24" s="6">
         <f t="shared" si="1"/>
@@ -3322,13 +3325,13 @@
         <v>29</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G24" s="27">
         <v>2003.0</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I24" s="27" t="s">
         <v>63</v>
@@ -3349,7 +3352,7 @@
       <c r="Q24" s="39"/>
       <c r="R24" s="39"/>
       <c r="S24" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="T24" s="36" t="s">
         <v>66</v>
@@ -3357,7 +3360,7 @@
     </row>
     <row r="25">
       <c r="A25" s="41" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B25" s="6">
         <f t="shared" si="1"/>
@@ -3373,16 +3376,16 @@
         <v>29</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G25" s="27">
         <v>2002.0</v>
       </c>
       <c r="H25" s="62" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J25" s="24" t="s">
         <v>64</v>
@@ -3400,7 +3403,7 @@
       <c r="Q25" s="39"/>
       <c r="R25" s="39"/>
       <c r="S25" s="35" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="T25" s="36" t="s">
         <v>73</v>
@@ -3408,29 +3411,29 @@
     </row>
     <row r="26">
       <c r="A26" s="22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B26" s="6">
         <f t="shared" si="1"/>
         <v>442</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G26" s="27">
         <v>2022.0</v>
       </c>
       <c r="H26" s="66" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I26" s="27" t="s">
         <v>114</v>
@@ -3451,7 +3454,7 @@
       <c r="Q26" s="39"/>
       <c r="R26" s="39"/>
       <c r="S26" s="35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="T26" s="36" t="s">
         <v>79</v>
@@ -3459,7 +3462,7 @@
     </row>
     <row r="27">
       <c r="A27" s="41" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B27" s="6">
         <f t="shared" si="1"/>
@@ -3475,16 +3478,16 @@
         <v>29</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G27" s="27">
         <v>1921.0</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J27" s="24" t="s">
         <v>33</v>
@@ -3502,7 +3505,7 @@
       <c r="Q27" s="39"/>
       <c r="R27" s="39"/>
       <c r="S27" s="35" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="T27" s="36" t="s">
         <v>87</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="28">
       <c r="A28" s="22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B28" s="6">
         <f t="shared" si="1"/>
@@ -3526,13 +3529,13 @@
         <v>29</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G28" s="27">
         <v>1933.0</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I28" s="27" t="s">
         <v>32</v>
@@ -3553,7 +3556,7 @@
       <c r="Q28" s="39"/>
       <c r="R28" s="39"/>
       <c r="S28" s="35" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="T28" s="36" t="s">
         <v>94</v>
@@ -3561,7 +3564,7 @@
     </row>
     <row r="29">
       <c r="A29" s="22" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B29" s="6">
         <f t="shared" si="1"/>
@@ -3577,16 +3580,16 @@
         <v>29</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G29" s="27">
         <v>1989.0</v>
       </c>
       <c r="H29" s="49" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="J29" s="24" t="s">
         <v>49</v>
@@ -3604,7 +3607,7 @@
       <c r="Q29" s="39"/>
       <c r="R29" s="39"/>
       <c r="S29" s="35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T29" s="36" t="s">
         <v>43</v>
@@ -3612,7 +3615,7 @@
     </row>
     <row r="30">
       <c r="A30" s="41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B30" s="6">
         <f t="shared" si="1"/>
@@ -3634,10 +3637,10 @@
         <v>1936.0</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J30" s="24" t="s">
         <v>49</v>
@@ -3655,7 +3658,7 @@
       <c r="Q30" s="39"/>
       <c r="R30" s="39"/>
       <c r="S30" s="35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="T30" s="36" t="s">
         <v>51</v>
@@ -3663,32 +3666,32 @@
     </row>
     <row r="31">
       <c r="A31" s="59" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B31" s="6">
         <f t="shared" si="1"/>
         <v>443</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G31" s="27">
         <v>2022.0</v>
       </c>
       <c r="H31" s="66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J31" s="24" t="s">
         <v>49</v>
@@ -3705,18 +3708,18 @@
       <c r="P31" s="34"/>
       <c r="Q31" s="39"/>
       <c r="R31" s="68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S31" s="40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T31" s="36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="59" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B32" s="6">
         <f t="shared" si="1"/>
@@ -3732,16 +3735,16 @@
         <v>29</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G32" s="27">
         <v>2013.0</v>
       </c>
       <c r="H32" s="49" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J32" s="24" t="s">
         <v>49</v>
@@ -3759,7 +3762,7 @@
       <c r="Q32" s="39"/>
       <c r="R32" s="39"/>
       <c r="S32" s="40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T32" s="36" t="s">
         <v>73</v>
@@ -3767,32 +3770,32 @@
     </row>
     <row r="33">
       <c r="A33" s="22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B33" s="6">
         <f t="shared" si="1"/>
         <v>445</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G33" s="27">
         <v>2022.0</v>
       </c>
       <c r="H33" s="49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I33" s="27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J33" s="24" t="s">
         <v>49</v>
@@ -3809,10 +3812,10 @@
       <c r="P33" s="34"/>
       <c r="Q33" s="39"/>
       <c r="R33" s="25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S33" s="35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T33" s="36" t="s">
         <v>79</v>
@@ -3820,7 +3823,7 @@
     </row>
     <row r="34">
       <c r="A34" s="41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B34" s="6">
         <f t="shared" si="1"/>
@@ -3836,13 +3839,13 @@
         <v>29</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G34" s="27">
         <v>1997.0</v>
       </c>
       <c r="H34" s="49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I34" s="27" t="s">
         <v>92</v>
@@ -3862,10 +3865,10 @@
       <c r="P34" s="34"/>
       <c r="Q34" s="39"/>
       <c r="R34" s="25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S34" s="35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="T34" s="36" t="s">
         <v>87</v>
@@ -3873,7 +3876,7 @@
     </row>
     <row r="35">
       <c r="A35" s="41" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B35" s="6">
         <f t="shared" si="1"/>
@@ -3889,16 +3892,16 @@
         <v>29</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G35" s="27">
         <v>1937.0</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I35" s="27" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J35" s="24" t="s">
         <v>64</v>
@@ -3915,10 +3918,10 @@
       <c r="P35" s="34"/>
       <c r="Q35" s="39"/>
       <c r="R35" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S35" s="35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="T35" s="36" t="s">
         <v>94</v>
@@ -3926,7 +3929,7 @@
     </row>
     <row r="36">
       <c r="A36" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B36" s="6">
         <f t="shared" si="1"/>
@@ -3948,10 +3951,10 @@
         <v>1937.0</v>
       </c>
       <c r="H36" s="53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I36" s="54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J36" s="52" t="s">
         <v>49</v>
@@ -3969,7 +3972,7 @@
       <c r="Q36" s="39"/>
       <c r="R36" s="25"/>
       <c r="S36" s="35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="T36" s="36" t="s">
         <v>51</v>
@@ -3977,14 +3980,14 @@
     </row>
     <row r="37">
       <c r="A37" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B37" s="6">
         <f t="shared" si="1"/>
         <v>446</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>36</v>
@@ -3993,13 +3996,13 @@
         <v>29</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G37" s="27">
         <v>1982.0</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I37" s="27" t="s">
         <v>26</v>
@@ -4020,7 +4023,7 @@
       <c r="Q37" s="39"/>
       <c r="R37" s="39"/>
       <c r="S37" s="35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="T37" s="36" t="s">
         <v>58</v>
@@ -4028,7 +4031,7 @@
     </row>
     <row r="38">
       <c r="A38" s="41" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B38" s="6">
         <f t="shared" si="1"/>
@@ -4044,16 +4047,16 @@
         <v>29</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G38" s="27">
         <v>1992.0</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I38" s="27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J38" s="24" t="s">
         <v>64</v>
@@ -4071,7 +4074,7 @@
       <c r="Q38" s="39"/>
       <c r="R38" s="25"/>
       <c r="S38" s="35" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T38" s="36" t="s">
         <v>73</v>
@@ -4079,32 +4082,32 @@
     </row>
     <row r="39">
       <c r="A39" s="22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B39" s="6">
         <f t="shared" si="1"/>
         <v>445</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E39" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G39" s="27">
         <v>2021.0</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I39" s="27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J39" s="24" t="s">
         <v>49</v>
@@ -4122,7 +4125,7 @@
       <c r="Q39" s="25"/>
       <c r="R39" s="39"/>
       <c r="S39" s="35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T39" s="36" t="s">
         <v>79</v>
@@ -4130,7 +4133,7 @@
     </row>
     <row r="40">
       <c r="A40" s="41" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B40" s="6">
         <f t="shared" si="1"/>
@@ -4146,16 +4149,16 @@
         <v>29</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G40" s="27">
         <v>1934.0</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J40" s="24" t="s">
         <v>64</v>
@@ -4173,7 +4176,7 @@
       <c r="Q40" s="39"/>
       <c r="R40" s="39"/>
       <c r="S40" s="35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T40" s="36" t="s">
         <v>87</v>
@@ -4181,7 +4184,7 @@
     </row>
     <row r="41">
       <c r="A41" s="22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B41" s="6">
         <f t="shared" si="1"/>
@@ -4197,16 +4200,16 @@
         <v>29</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G41" s="27">
         <v>1946.0</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I41" s="27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J41" s="24" t="s">
         <v>64</v>
@@ -4223,10 +4226,10 @@
       <c r="P41" s="34"/>
       <c r="Q41" s="39"/>
       <c r="R41" s="25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S41" s="35" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="T41" s="36" t="s">
         <v>94</v>
@@ -4234,7 +4237,7 @@
     </row>
     <row r="42">
       <c r="A42" s="22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B42" s="6">
         <f t="shared" si="1"/>
@@ -4250,16 +4253,16 @@
         <v>29</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I42" s="27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J42" s="70" t="s">
         <v>33</v>
@@ -4276,10 +4279,10 @@
       <c r="P42" s="34"/>
       <c r="Q42" s="39"/>
       <c r="R42" s="68" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S42" s="35" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="T42" s="36" t="s">
         <v>43</v>
@@ -4287,7 +4290,7 @@
     </row>
     <row r="43">
       <c r="A43" s="22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B43" s="6">
         <f t="shared" si="1"/>
@@ -4309,10 +4312,10 @@
         <v>1938.0</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I43" s="27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J43" s="24" t="s">
         <v>64</v>
@@ -4330,7 +4333,7 @@
       <c r="Q43" s="39"/>
       <c r="R43" s="39"/>
       <c r="S43" s="35" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="T43" s="36" t="s">
         <v>51</v>
@@ -4338,7 +4341,7 @@
     </row>
     <row r="44">
       <c r="A44" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B44" s="6">
         <f t="shared" si="1"/>
@@ -4354,16 +4357,16 @@
         <v>29</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G44" s="27">
         <v>1982.0</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I44" s="27" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J44" s="24" t="s">
         <v>64</v>
@@ -4380,10 +4383,10 @@
       <c r="P44" s="34"/>
       <c r="Q44" s="39"/>
       <c r="R44" s="68" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S44" s="35" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T44" s="36" t="s">
         <v>66</v>
@@ -4391,7 +4394,7 @@
     </row>
     <row r="45">
       <c r="A45" s="41" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B45" s="6">
         <f t="shared" si="1"/>
@@ -4407,13 +4410,13 @@
         <v>29</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G45" s="27">
         <v>1954.0</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I45" s="27" t="s">
         <v>48</v>
@@ -4434,7 +4437,7 @@
       <c r="Q45" s="39"/>
       <c r="R45" s="39"/>
       <c r="S45" s="35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T45" s="36" t="s">
         <v>58</v>
@@ -4442,7 +4445,7 @@
     </row>
     <row r="46">
       <c r="A46" s="22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B46" s="6">
         <f t="shared" si="1"/>
@@ -4458,16 +4461,16 @@
         <v>29</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G46" s="27">
         <v>2000.0</v>
       </c>
       <c r="H46" s="49" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I46" s="27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J46" s="24" t="s">
         <v>64</v>
@@ -4485,7 +4488,7 @@
       <c r="Q46" s="39"/>
       <c r="R46" s="39"/>
       <c r="S46" s="35" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T46" s="36" t="s">
         <v>66</v>
@@ -4493,7 +4496,7 @@
     </row>
     <row r="47">
       <c r="A47" s="59" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B47" s="6">
         <f t="shared" si="1"/>
@@ -4509,16 +4512,16 @@
         <v>29</v>
       </c>
       <c r="F47" s="73" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G47" s="27">
         <v>2007.0</v>
       </c>
       <c r="H47" s="43" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I47" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J47" s="24" t="s">
         <v>64</v>
@@ -4536,7 +4539,7 @@
       <c r="Q47" s="39"/>
       <c r="R47" s="39"/>
       <c r="S47" s="35" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="T47" s="36" t="s">
         <v>73</v>
@@ -4544,32 +4547,32 @@
     </row>
     <row r="48">
       <c r="A48" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B48" s="6">
         <f t="shared" si="1"/>
         <v>449</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E48" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G48" s="27">
         <v>2022.0</v>
       </c>
       <c r="H48" s="43" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I48" s="27" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J48" s="24" t="s">
         <v>49</v>
@@ -4587,7 +4590,7 @@
       <c r="Q48" s="39"/>
       <c r="R48" s="39"/>
       <c r="S48" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="T48" s="36" t="s">
         <v>79</v>
@@ -4595,7 +4598,7 @@
     </row>
     <row r="49">
       <c r="A49" s="41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B49" s="6">
         <f t="shared" si="1"/>
@@ -4611,16 +4614,16 @@
         <v>29</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G49" s="27">
         <v>1995.0</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I49" s="27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J49" s="24" t="s">
         <v>49</v>
@@ -4638,7 +4641,7 @@
       <c r="Q49" s="39"/>
       <c r="R49" s="25"/>
       <c r="S49" s="35" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="T49" s="36" t="s">
         <v>87</v>
@@ -4646,7 +4649,7 @@
     </row>
     <row r="50">
       <c r="A50" s="59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B50" s="6">
         <f t="shared" si="1"/>
@@ -4662,13 +4665,13 @@
         <v>29</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G50" s="27">
         <v>1948.0</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I50" s="27" t="s">
         <v>56</v>
@@ -4689,7 +4692,7 @@
       <c r="Q50" s="39"/>
       <c r="R50" s="39"/>
       <c r="S50" s="35" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="T50" s="36" t="s">
         <v>94</v>
@@ -4697,7 +4700,7 @@
     </row>
     <row r="51">
       <c r="A51" s="74" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B51" s="6">
         <f t="shared" si="1"/>
@@ -4713,19 +4716,19 @@
         <v>29</v>
       </c>
       <c r="F51" s="75" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G51" s="76" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H51" s="77" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I51" s="76" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J51" s="63" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K51" s="30">
         <v>44971.0</v>
@@ -4739,10 +4742,10 @@
       <c r="P51" s="34"/>
       <c r="Q51" s="39"/>
       <c r="R51" s="68" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="S51" s="35" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="T51" s="36" t="s">
         <v>43</v>
@@ -4750,7 +4753,7 @@
     </row>
     <row r="52">
       <c r="A52" s="59" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B52" s="6">
         <f t="shared" si="1"/>
@@ -4772,7 +4775,7 @@
         <v>1951.0</v>
       </c>
       <c r="H52" s="43" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I52" s="27" t="s">
         <v>92</v>
@@ -4793,7 +4796,7 @@
       <c r="Q52" s="39"/>
       <c r="R52" s="39"/>
       <c r="S52" s="35" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T52" s="36" t="s">
         <v>51</v>
@@ -4801,7 +4804,7 @@
     </row>
     <row r="53">
       <c r="A53" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B53" s="6">
         <f t="shared" si="1"/>
@@ -4817,16 +4820,16 @@
         <v>29</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G53" s="27">
         <v>1964.0</v>
       </c>
       <c r="H53" s="43" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I53" s="27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J53" s="24" t="s">
         <v>49</v>
@@ -4844,7 +4847,7 @@
       <c r="Q53" s="39"/>
       <c r="R53" s="39"/>
       <c r="S53" s="35" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T53" s="36" t="s">
         <v>58</v>
@@ -4852,7 +4855,7 @@
     </row>
     <row r="54">
       <c r="A54" s="59" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B54" s="6">
         <f t="shared" si="1"/>
@@ -4868,16 +4871,16 @@
         <v>29</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G54" s="27">
         <v>2002.0</v>
       </c>
       <c r="H54" s="43" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I54" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J54" s="24" t="s">
         <v>64</v>
@@ -4895,7 +4898,7 @@
       <c r="Q54" s="39"/>
       <c r="R54" s="39"/>
       <c r="S54" s="35" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T54" s="36" t="s">
         <v>66</v>
@@ -4903,7 +4906,7 @@
     </row>
     <row r="55">
       <c r="A55" s="78" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B55" s="6">
         <f t="shared" si="1"/>
@@ -4913,7 +4916,7 @@
         <v>68</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E55" s="25" t="s">
         <v>29</v>
@@ -4925,10 +4928,10 @@
         <v>2012.0</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I55" s="27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J55" s="24" t="s">
         <v>64</v>
@@ -4946,7 +4949,7 @@
       <c r="Q55" s="39"/>
       <c r="R55" s="39"/>
       <c r="S55" s="35" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="T55" s="36" t="s">
         <v>73</v>
@@ -4954,14 +4957,14 @@
     </row>
     <row r="56">
       <c r="A56" s="59" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B56" s="6">
         <f t="shared" si="1"/>
         <v>447</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="23" t="s">
         <v>81</v>
@@ -4970,16 +4973,16 @@
         <v>29</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G56" s="27">
         <v>2022.0</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I56" s="27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J56" s="24" t="s">
         <v>49</v>
@@ -4996,10 +4999,10 @@
       <c r="P56" s="34"/>
       <c r="Q56" s="39"/>
       <c r="R56" s="68" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S56" s="35" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T56" s="36" t="s">
         <v>79</v>
@@ -5007,7 +5010,7 @@
     </row>
     <row r="57">
       <c r="A57" s="41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B57" s="6">
         <f t="shared" si="1"/>
@@ -5017,22 +5020,22 @@
         <v>81</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E57" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F57" s="73" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G57" s="27">
         <v>1958.0</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I57" s="27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J57" s="24" t="s">
         <v>64</v>
@@ -5052,7 +5055,7 @@
         <v>85</v>
       </c>
       <c r="S57" s="35" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="T57" s="36" t="s">
         <v>87</v>
@@ -5060,7 +5063,7 @@
     </row>
     <row r="58">
       <c r="A58" s="41" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B58" s="6">
         <f t="shared" si="1"/>
@@ -5076,16 +5079,16 @@
         <v>29</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G58" s="27">
         <v>1953.0</v>
       </c>
       <c r="H58" s="49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J58" s="24" t="s">
         <v>49</v>
@@ -5103,7 +5106,7 @@
       <c r="Q58" s="39"/>
       <c r="R58" s="39"/>
       <c r="S58" s="35" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="T58" s="36" t="s">
         <v>94</v>
@@ -5111,7 +5114,7 @@
     </row>
     <row r="59">
       <c r="A59" s="22" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B59" s="6">
         <f t="shared" si="1"/>
@@ -5127,16 +5130,16 @@
         <v>29</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H59" s="43" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I59" s="27" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J59" s="24" t="s">
         <v>49</v>
@@ -5154,7 +5157,7 @@
       <c r="Q59" s="39"/>
       <c r="R59" s="39"/>
       <c r="S59" s="35" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="T59" s="36" t="s">
         <v>43</v>
@@ -5162,14 +5165,14 @@
     </row>
     <row r="60">
       <c r="A60" s="59" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B60" s="6">
         <f t="shared" si="1"/>
         <v>453</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>136</v>
@@ -5184,10 +5187,10 @@
         <v>1956.0</v>
       </c>
       <c r="H60" s="43" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I60" s="27" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J60" s="24" t="s">
         <v>33</v>
@@ -5205,7 +5208,7 @@
       <c r="Q60" s="39"/>
       <c r="R60" s="39"/>
       <c r="S60" s="35" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T60" s="36" t="s">
         <v>51</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="61">
       <c r="A61" s="22" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B61" s="6">
         <f t="shared" si="1"/>
@@ -5229,19 +5232,19 @@
         <v>29</v>
       </c>
       <c r="F61" s="73" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H61" s="43" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I61" s="79" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K61" s="30">
         <v>44980.0</v>
@@ -5256,7 +5259,7 @@
       <c r="Q61" s="39"/>
       <c r="R61" s="39"/>
       <c r="S61" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="T61" s="36" t="s">
         <v>58</v>
@@ -5264,7 +5267,7 @@
     </row>
     <row r="62">
       <c r="A62" s="59" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B62" s="6">
         <f t="shared" si="1"/>
@@ -5280,13 +5283,13 @@
         <v>29</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G62" s="27">
         <v>2002.0</v>
       </c>
       <c r="H62" s="43" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I62" s="27" t="s">
         <v>104</v>
@@ -5307,7 +5310,7 @@
       <c r="Q62" s="39"/>
       <c r="R62" s="39"/>
       <c r="S62" s="35" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="T62" s="36" t="s">
         <v>66</v>
@@ -5315,7 +5318,7 @@
     </row>
     <row r="63">
       <c r="A63" s="59" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B63" s="6">
         <f t="shared" si="1"/>
@@ -5337,7 +5340,7 @@
         <v>2002.0</v>
       </c>
       <c r="H63" s="43" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I63" s="27" t="s">
         <v>114</v>
@@ -5358,7 +5361,7 @@
       <c r="Q63" s="39"/>
       <c r="R63" s="39"/>
       <c r="S63" s="35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="T63" s="36" t="s">
         <v>73</v>
@@ -5366,32 +5369,32 @@
     </row>
     <row r="64">
       <c r="A64" s="59" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B64" s="6">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E64" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G64" s="27">
         <v>2022.0</v>
       </c>
       <c r="H64" s="80" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I64" s="27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J64" s="24" t="s">
         <v>49</v>
@@ -5409,7 +5412,7 @@
       <c r="Q64" s="39"/>
       <c r="R64" s="39"/>
       <c r="S64" s="35" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="T64" s="36" t="s">
         <v>79</v>
@@ -5417,32 +5420,32 @@
     </row>
     <row r="65">
       <c r="A65" s="41" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B65" s="81">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E65" s="82" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G65" s="27">
         <v>1969.0</v>
       </c>
       <c r="H65" s="49" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I65" s="27" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J65" s="24" t="s">
         <v>49</v>
@@ -5460,7 +5463,7 @@
       <c r="Q65" s="39"/>
       <c r="R65" s="39"/>
       <c r="S65" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="T65" s="36" t="s">
         <v>87</v>
@@ -5468,7 +5471,7 @@
     </row>
     <row r="66">
       <c r="A66" s="22" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B66" s="6">
         <f t="shared" si="1"/>
@@ -5484,16 +5487,16 @@
         <v>29</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G66" s="27">
         <v>1957.0</v>
       </c>
       <c r="H66" s="43" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I66" s="27" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J66" s="24" t="s">
         <v>49</v>
@@ -5511,7 +5514,7 @@
       <c r="Q66" s="39"/>
       <c r="R66" s="39"/>
       <c r="S66" s="35" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T66" s="36" t="s">
         <v>94</v>
@@ -5519,7 +5522,7 @@
     </row>
     <row r="67">
       <c r="A67" s="22" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B67" s="6">
         <f t="shared" si="1"/>
@@ -5535,19 +5538,19 @@
         <v>29</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H67" s="43" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I67" s="27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J67" s="24" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K67" s="30">
         <v>44985.0</v>
@@ -5562,7 +5565,7 @@
       <c r="Q67" s="39"/>
       <c r="R67" s="25"/>
       <c r="S67" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="T67" s="36" t="s">
         <v>43</v>
@@ -5570,7 +5573,7 @@
     </row>
     <row r="68">
       <c r="A68" s="22" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B68" s="6">
         <f t="shared" si="1"/>
@@ -5592,10 +5595,10 @@
         <v>1941.0</v>
       </c>
       <c r="H68" s="43" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I68" s="27" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J68" s="24" t="s">
         <v>64</v>
@@ -5613,7 +5616,7 @@
       <c r="Q68" s="39"/>
       <c r="R68" s="39"/>
       <c r="S68" s="35" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T68" s="36" t="s">
         <v>51</v>
@@ -5621,32 +5624,32 @@
     </row>
     <row r="69">
       <c r="A69" s="22" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B69" s="6">
         <f t="shared" si="1"/>
         <v>459</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E69" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G69" s="27">
         <v>1979.0</v>
       </c>
       <c r="H69" s="83" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I69" s="27" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J69" s="24" t="s">
         <v>49</v>
@@ -5664,7 +5667,7 @@
       <c r="Q69" s="39"/>
       <c r="R69" s="39"/>
       <c r="S69" s="35" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T69" s="36" t="s">
         <v>58</v>
@@ -5672,7 +5675,7 @@
     </row>
     <row r="70">
       <c r="A70" s="41" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B70" s="6">
         <f t="shared" si="1"/>
@@ -5688,16 +5691,16 @@
         <v>29</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G70" s="27">
         <v>2009.0</v>
       </c>
       <c r="H70" s="43" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I70" s="27" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J70" s="24" t="s">
         <v>64</v>
@@ -5715,7 +5718,7 @@
       <c r="Q70" s="39"/>
       <c r="R70" s="25"/>
       <c r="S70" s="35" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="T70" s="36" t="s">
         <v>66</v>
@@ -5723,7 +5726,7 @@
     </row>
     <row r="71">
       <c r="A71" s="22" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B71" s="6">
         <f t="shared" si="1"/>
@@ -5739,16 +5742,16 @@
         <v>29</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G71" s="27">
         <v>2014.0</v>
       </c>
       <c r="H71" s="43" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I71" s="27" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J71" s="24" t="s">
         <v>64</v>
@@ -5766,7 +5769,7 @@
       <c r="Q71" s="39"/>
       <c r="R71" s="39"/>
       <c r="S71" s="35" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="T71" s="36" t="s">
         <v>73</v>
@@ -5774,32 +5777,32 @@
     </row>
     <row r="72">
       <c r="A72" s="59" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B72" s="6">
         <f t="shared" si="1"/>
         <v>443</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E72" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F72" s="26" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G72" s="27">
         <v>2010.0</v>
       </c>
       <c r="H72" s="84" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I72" s="27" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J72" s="24" t="s">
         <v>49</v>
@@ -5817,15 +5820,15 @@
       <c r="Q72" s="39"/>
       <c r="R72" s="39"/>
       <c r="S72" s="35" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="T72" s="36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B73" s="6">
         <f t="shared" si="1"/>
@@ -5835,22 +5838,22 @@
         <v>81</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E73" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F73" s="26" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G73" s="27">
         <v>1921.0</v>
       </c>
       <c r="H73" s="49" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I73" s="27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J73" s="24" t="s">
         <v>49</v>
@@ -5868,14 +5871,14 @@
       <c r="Q73" s="39"/>
       <c r="R73" s="39"/>
       <c r="S73" s="35" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="T73" s="36" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E74">
+  <conditionalFormatting sqref="E2:E73">
     <cfRule type="notContainsText" dxfId="0" priority="1" operator="notContains" text="y">
       <formula>ISERROR(SEARCH(("y"),(E2)))</formula>
     </cfRule>
@@ -5885,17 +5888,17 @@
       <formula>ISERROR(SEARCH(("y"),(E18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B74">
+  <conditionalFormatting sqref="B2:B73">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>440</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B74">
+  <conditionalFormatting sqref="B2:B73">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>460</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E74">
+  <conditionalFormatting sqref="E2:E73">
     <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH(("y"),(E2))))</formula>
     </cfRule>
@@ -5905,13 +5908,13 @@
       <formula>NOT(ISERROR(SEARCH(("y"),(E18))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B74">
+  <conditionalFormatting sqref="B2:B73">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="between">
       <formula>440</formula>
       <formula>460</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:G74 I1:I74">
+  <conditionalFormatting sqref="F1:G73 I1:I73">
     <cfRule type="containsBlanks" dxfId="0" priority="8">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
@@ -6027,13 +6030,13 @@
   <sheetData>
     <row r="1" ht="33.75" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D1" s="85" t="s">
         <v>3</v>
@@ -6042,13 +6045,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I1" s="85"/>
       <c r="J1" s="85"/>
@@ -6064,7 +6067,7 @@
     </row>
     <row r="2" ht="65.25" customHeight="1">
       <c r="A2" s="87" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B2" s="88">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F2="""","""",COUNTA(SPLIT(F2,"" "")))"),107.0)</f>
@@ -6074,19 +6077,19 @@
         <v>136</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G2" s="91" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="92" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I2" s="91"/>
       <c r="J2" s="87"/>
@@ -6102,14 +6105,14 @@
     </row>
     <row r="3">
       <c r="A3" s="97" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B3" s="88">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F3="""","""",COUNTA(SPLIT(F3,"" "")))"),230.0)</f>
         <v>230</v>
       </c>
       <c r="C3" s="98" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D3" s="99" t="s">
         <v>136</v>
@@ -6118,7 +6121,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="67" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G3" s="100" t="s">
         <v>94</v>
@@ -6138,14 +6141,14 @@
     </row>
     <row r="4">
       <c r="A4" s="97" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B4" s="88">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F4="""","""",COUNTA(SPLIT(F4,"" "")))"),246.0)</f>
         <v>246</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D4" s="102" t="s">
         <v>136</v>
@@ -6154,13 +6157,13 @@
         <v>29</v>
       </c>
       <c r="F4" s="111" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G4" s="100" t="s">
         <v>43</v>
       </c>
       <c r="H4" s="112" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I4" s="100"/>
       <c r="J4" s="102"/>
@@ -6176,14 +6179,14 @@
     </row>
     <row r="5">
       <c r="A5" s="97" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B5" s="88">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F5="""","""",COUNTA(SPLIT(F5,"" "")))"),249.0)</f>
         <v>249</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D5" s="102" t="s">
         <v>136</v>
@@ -6192,7 +6195,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="115" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G5" s="100" t="s">
         <v>51</v>
@@ -6212,14 +6215,14 @@
     </row>
     <row r="6">
       <c r="A6" s="97" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B6" s="88">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F6="""","""",COUNTA(SPLIT(F6,"" "")))"),234.0)</f>
         <v>234</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D6" s="102" t="s">
         <v>136</v>
@@ -6228,7 +6231,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="111" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G6" s="100" t="s">
         <v>58</v>
@@ -6248,14 +6251,14 @@
     </row>
     <row r="7">
       <c r="A7" s="119" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B7" s="88">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F7="""","""",COUNTA(SPLIT(F7,"" "")))"),238.0)</f>
         <v>238</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D7" s="99" t="s">
         <v>136</v>
@@ -6264,7 +6267,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="111" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G7" s="100" t="s">
         <v>66</v>
@@ -6284,14 +6287,14 @@
     </row>
     <row r="8">
       <c r="A8" s="119" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B8" s="88">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F8="""","""",COUNTA(SPLIT(F8,"" "")))"),227.0)</f>
         <v>227</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D8" s="50" t="s">
         <v>136</v>
@@ -6300,7 +6303,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="122" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G8" s="123" t="s">
         <v>73</v>
@@ -6320,7 +6323,7 @@
     </row>
     <row r="9">
       <c r="A9" s="97" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B9" s="88" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F9="""","""",COUNTA(SPLIT(F9,"" "")))"),"")</f>
@@ -6352,14 +6355,14 @@
     </row>
     <row r="10">
       <c r="A10" s="97" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B10" s="88">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F10="""","""",COUNTA(SPLIT(F10,"" "")))"),220.0)</f>
         <v>220</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D10" s="102" t="s">
         <v>136</v>
@@ -6368,7 +6371,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="111" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G10" s="100" t="s">
         <v>87</v>
@@ -6388,7 +6391,7 @@
     </row>
     <row r="11">
       <c r="A11" s="97" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B11" s="88" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F11="""","""",COUNTA(SPLIT(F11,"" "")))"),"")</f>
@@ -6399,7 +6402,7 @@
       <c r="E11" s="23"/>
       <c r="F11" s="111"/>
       <c r="G11" s="100" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H11" s="67"/>
       <c r="I11" s="100"/>
